--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate2.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate2.xlsx
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -344,16 +344,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -371,13 +368,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -816,11 +813,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="135040336"/>
-        <c:axId val="135040728"/>
+        <c:axId val="163732768"/>
+        <c:axId val="163733160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135040336"/>
+        <c:axId val="163732768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +860,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135040728"/>
+        <c:crossAx val="163733160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -871,7 +868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135040728"/>
+        <c:axId val="163733160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +955,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135040336"/>
+        <c:crossAx val="163732768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1250,11 +1247,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="135041512"/>
-        <c:axId val="135041904"/>
+        <c:axId val="163733944"/>
+        <c:axId val="163734336"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="135041512"/>
+        <c:axId val="163733944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1294,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135041904"/>
+        <c:crossAx val="163734336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,7 +1302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135041904"/>
+        <c:axId val="163734336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1353,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135041512"/>
+        <c:crossAx val="163733944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2326,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,100 +2347,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="31" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="15"/>
       <c r="K4" s="14"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="31" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="15"/>
       <c r="K6" s="14"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -2601,10 +2598,10 @@
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="35"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
@@ -2642,36 +2639,36 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D49" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="29">
         <v>2.5875498499999998</v>
       </c>
-      <c r="F49" s="30"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="19"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="69" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
+    <row r="60" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C70" s="26" t="s">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="F70" s="23" t="s">
+      <c r="D61" s="33"/>
+      <c r="F61" s="23" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F60:H60"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="E49:F49"/>
@@ -2687,9 +2684,6 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F69:H69"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate2.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate2.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$84</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -353,6 +356,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,12 +379,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,11 +816,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="163732768"/>
-        <c:axId val="163733160"/>
+        <c:axId val="162112856"/>
+        <c:axId val="162113248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163732768"/>
+        <c:axId val="162112856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +863,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163733160"/>
+        <c:crossAx val="162113248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -868,7 +871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163733160"/>
+        <c:axId val="162113248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +958,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163732768"/>
+        <c:crossAx val="162112856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1247,11 +1250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="163733944"/>
-        <c:axId val="163734336"/>
+        <c:axId val="162114032"/>
+        <c:axId val="162114424"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="163733944"/>
+        <c:axId val="162114032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1297,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163734336"/>
+        <c:crossAx val="162114424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1302,7 +1305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163734336"/>
+        <c:axId val="162114424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1356,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163733944"/>
+        <c:crossAx val="162114032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2326,7 +2329,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,100 +2350,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="30" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="15"/>
       <c r="K4" s="14"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="30" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="15"/>
       <c r="K6" s="14"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -2643,30 +2646,31 @@
       <c r="D49" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="31">
         <v>2.5875498499999998</v>
       </c>
-      <c r="F49" s="29"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="21"/>
       <c r="H49" s="19"/>
       <c r="I49" s="4"/>
     </row>
     <row r="60" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="33"/>
+      <c r="D61" s="27"/>
       <c r="F61" s="23" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="F60:H60"/>
     <mergeCell ref="A1:I1"/>
@@ -2683,7 +2687,6 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate2.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate2.xlsx
@@ -356,6 +356,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -370,15 +379,6 @@
     </xf>
     <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,11 +816,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="162112856"/>
-        <c:axId val="162113248"/>
+        <c:axId val="162754368"/>
+        <c:axId val="162754760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162112856"/>
+        <c:axId val="162754368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +863,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162113248"/>
+        <c:crossAx val="162754760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -871,7 +871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162113248"/>
+        <c:axId val="162754760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +958,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162112856"/>
+        <c:crossAx val="162754368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1250,11 +1250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162114032"/>
-        <c:axId val="162114424"/>
+        <c:axId val="162755544"/>
+        <c:axId val="162755936"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="162114032"/>
+        <c:axId val="162755544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1297,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162114424"/>
+        <c:crossAx val="162755936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,7 +1305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162114424"/>
+        <c:axId val="162755936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1356,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162114032"/>
+        <c:crossAx val="162755544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2329,7 +2329,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+      <selection activeCell="G4" sqref="G4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,100 +2350,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="32" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="14"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="32" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="32" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="14"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -2646,47 +2648,47 @@
       <c r="D49" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="34">
         <v>2.5875498499999998</v>
       </c>
-      <c r="F49" s="31"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="21"/>
       <c r="H49" s="19"/>
       <c r="I49" s="4"/>
     </row>
     <row r="60" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="27"/>
+      <c r="D61" s="30"/>
       <c r="F61" s="23" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="F60:H60"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A8:I8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C61:D61"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate2.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate2.xlsx
@@ -80,9 +80,6 @@
     <t>Método seleccionado</t>
   </si>
   <si>
-    <t>Varible equivalente (VE)</t>
-  </si>
-  <si>
     <t>Calificación VE</t>
   </si>
   <si>
@@ -91,12 +88,15 @@
   <si>
     <t>Firma Colaborador</t>
   </si>
+  <si>
+    <t>Variable equivalente (VE)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,18 +168,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -296,27 +284,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -334,33 +310,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,11 +355,20 @@
     <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -396,7 +380,41 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -426,7 +444,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -458,7 +476,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -496,7 +514,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -505,11 +523,46 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -536,49 +589,23 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -816,11 +843,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="162754368"/>
-        <c:axId val="162754760"/>
+        <c:axId val="182662032"/>
+        <c:axId val="182669312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162754368"/>
+        <c:axId val="182662032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +890,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162754760"/>
+        <c:crossAx val="182669312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -871,7 +898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162754760"/>
+        <c:axId val="182669312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +985,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162754368"/>
+        <c:crossAx val="182662032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1250,11 +1277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162755544"/>
-        <c:axId val="162755936"/>
+        <c:axId val="183221840"/>
+        <c:axId val="182727616"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="162755544"/>
+        <c:axId val="183221840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1324,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162755936"/>
+        <c:crossAx val="182727616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,7 +1332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162755936"/>
+        <c:axId val="182727616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1383,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162755544"/>
+        <c:crossAx val="183221840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2048,16 +2075,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B34:H44" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B34:H44" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="B34:H44"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="4"/>
-    <tableColumn id="2" name="Varible equivalente (VE)"/>
-    <tableColumn id="3" name="Método seleccionado"/>
-    <tableColumn id="7" name="Calificación VE" dataDxfId="3"/>
-    <tableColumn id="4" name="Valor Relativo" dataDxfId="2"/>
-    <tableColumn id="5" name="Candidato Ideal" dataDxfId="1"/>
-    <tableColumn id="6" name="Calificación" dataDxfId="0"/>
+    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="7"/>
+    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="6"/>
+    <tableColumn id="3" name="Método seleccionado" dataDxfId="5"/>
+    <tableColumn id="7" name="Calificación VE" dataDxfId="4"/>
+    <tableColumn id="4" name="Valor Relativo" dataDxfId="3"/>
+    <tableColumn id="5" name="Candidato Ideal" dataDxfId="2"/>
+    <tableColumn id="6" name="Calificación" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2328,15 +2355,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
@@ -2350,331 +2377,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="28" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="14"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+    <row r="34" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18">
         <v>2</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="18">
         <v>2</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18">
         <v>2</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="18">
         <v>2</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="8">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="20">
         <v>3</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="20">
         <v>3</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2">
+      <c r="B38" s="9"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18">
         <v>4</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2">
+      <c r="B39" s="9"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18">
         <v>3</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2">
+      <c r="B40" s="9"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18">
         <v>2</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2">
+      <c r="B41" s="9"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18">
         <v>2</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="13"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8">
+      <c r="B42" s="9"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20">
         <v>3</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="29">
         <v>2.5875498499999998</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="4"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="60" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="F61" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D61" s="30"/>
-      <c r="F61" s="23" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="F60:H60"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="E49:F49"/>
@@ -2689,6 +2713,9 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C61:D61"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="F60:H60"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
